--- a/admin/Journals to invite.01 kwa.xlsx
+++ b/admin/Journals to invite.01 kwa.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="23960" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="23955" windowHeight="14895" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="science" sheetId="2" r:id="rId1"/>
+    <sheet name="eng" sheetId="3" r:id="rId2"/>
+    <sheet name="Part III" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="774">
   <si>
     <t>Rank</t>
   </si>
@@ -2317,13 +2319,37 @@
   </si>
   <si>
     <t>Review copy</t>
+  </si>
+  <si>
+    <t>Traffic Engineering and Control</t>
+  </si>
+  <si>
+    <t>Internationales Verkehrswesen</t>
+  </si>
+  <si>
+    <t>Strassenverkehrstechnik</t>
+  </si>
+  <si>
+    <t>Der Nahverkehr</t>
+  </si>
+  <si>
+    <t>ite Journal</t>
+  </si>
+  <si>
+    <t>Strasse und Verkehr</t>
+  </si>
+  <si>
+    <t>Transportation Letters</t>
+  </si>
+  <si>
+    <t>Journal of Transportation and Land use </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2366,6 +2392,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2420,7 +2452,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -2431,6 +2463,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2446,6 +2484,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2771,18 +2814,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D407"/>
+  <dimension ref="A1:D412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="B411" sqref="B411:E412"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="61.33203125" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45">
+    <row r="1" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>765</v>
       </c>
@@ -2796,7 +2839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>763</v>
       </c>
@@ -2810,7 +2853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>763</v>
       </c>
@@ -2824,7 +2867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>763</v>
       </c>
@@ -2838,7 +2881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>763</v>
       </c>
@@ -2852,7 +2895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>763</v>
       </c>
@@ -2866,7 +2909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>763</v>
       </c>
@@ -2880,7 +2923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>763</v>
       </c>
@@ -2894,7 +2937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>763</v>
       </c>
@@ -2908,7 +2951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>763</v>
       </c>
@@ -2922,7 +2965,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>763</v>
       </c>
@@ -2936,7 +2979,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>763</v>
       </c>
@@ -2950,7 +2993,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>763</v>
       </c>
@@ -2964,7 +3007,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>763</v>
       </c>
@@ -2978,7 +3021,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>763</v>
       </c>
@@ -2992,7 +3035,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>763</v>
       </c>
@@ -3006,7 +3049,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>763</v>
       </c>
@@ -3020,7 +3063,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>763</v>
       </c>
@@ -3034,7 +3077,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>763</v>
       </c>
@@ -3048,7 +3091,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>763</v>
       </c>
@@ -3062,7 +3105,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>763</v>
       </c>
@@ -3076,7 +3119,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>763</v>
       </c>
@@ -3090,7 +3133,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>763</v>
       </c>
@@ -3104,7 +3147,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>763</v>
       </c>
@@ -3118,7 +3161,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>763</v>
       </c>
@@ -3132,7 +3175,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>763</v>
       </c>
@@ -3146,7 +3189,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>763</v>
       </c>
@@ -3160,7 +3203,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>763</v>
       </c>
@@ -3174,7 +3217,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>763</v>
       </c>
@@ -3188,7 +3231,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>763</v>
       </c>
@@ -3202,7 +3245,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>763</v>
       </c>
@@ -3216,7 +3259,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>763</v>
       </c>
@@ -3230,7 +3273,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>763</v>
       </c>
@@ -3244,7 +3287,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>763</v>
       </c>
@@ -3258,7 +3301,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>763</v>
       </c>
@@ -3272,7 +3315,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>763</v>
       </c>
@@ -3286,7 +3329,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>763</v>
       </c>
@@ -3300,7 +3343,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>763</v>
       </c>
@@ -3314,7 +3357,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>763</v>
       </c>
@@ -3328,7 +3371,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>763</v>
       </c>
@@ -3342,7 +3385,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>763</v>
       </c>
@@ -3356,7 +3399,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>763</v>
       </c>
@@ -3370,7 +3413,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>763</v>
       </c>
@@ -3384,7 +3427,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>763</v>
       </c>
@@ -3398,7 +3441,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>763</v>
       </c>
@@ -3412,7 +3455,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>763</v>
       </c>
@@ -3426,7 +3469,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>763</v>
       </c>
@@ -3440,7 +3483,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>763</v>
       </c>
@@ -3454,7 +3497,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>763</v>
       </c>
@@ -3468,7 +3511,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>763</v>
       </c>
@@ -3482,7 +3525,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15">
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>763</v>
       </c>
@@ -3496,7 +3539,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>763</v>
       </c>
@@ -3510,7 +3553,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>763</v>
       </c>
@@ -3524,7 +3567,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15">
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>763</v>
       </c>
@@ -3538,7 +3581,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15">
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>763</v>
       </c>
@@ -3552,7 +3595,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15">
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>763</v>
       </c>
@@ -3566,7 +3609,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15">
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>763</v>
       </c>
@@ -3580,7 +3623,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15">
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>763</v>
       </c>
@@ -3594,7 +3637,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15">
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>763</v>
       </c>
@@ -3608,7 +3651,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15">
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>763</v>
       </c>
@@ -3622,7 +3665,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15">
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>763</v>
       </c>
@@ -3636,7 +3679,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15">
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>763</v>
       </c>
@@ -3650,7 +3693,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15">
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>763</v>
       </c>
@@ -3664,7 +3707,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15">
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>763</v>
       </c>
@@ -3678,7 +3721,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>763</v>
       </c>
@@ -3692,7 +3735,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>763</v>
       </c>
@@ -3706,7 +3749,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>763</v>
       </c>
@@ -3720,7 +3763,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15">
+    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>763</v>
       </c>
@@ -3734,7 +3777,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15">
+    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>763</v>
       </c>
@@ -3748,7 +3791,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15">
+    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>763</v>
       </c>
@@ -3762,7 +3805,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15">
+    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>763</v>
       </c>
@@ -3776,7 +3819,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15">
+    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>763</v>
       </c>
@@ -3790,7 +3833,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>763</v>
       </c>
@@ -3804,7 +3847,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>763</v>
       </c>
@@ -3818,7 +3861,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>763</v>
       </c>
@@ -3832,7 +3875,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15">
+    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>763</v>
       </c>
@@ -3846,7 +3889,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15">
+    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>763</v>
       </c>
@@ -3860,7 +3903,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15">
+    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>763</v>
       </c>
@@ -3874,7 +3917,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15">
+    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>763</v>
       </c>
@@ -3888,7 +3931,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15">
+    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>763</v>
       </c>
@@ -3902,7 +3945,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15">
+    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>763</v>
       </c>
@@ -3916,7 +3959,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15">
+    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>763</v>
       </c>
@@ -3930,7 +3973,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15">
+    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>763</v>
       </c>
@@ -3944,7 +3987,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15">
+    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>763</v>
       </c>
@@ -3958,7 +4001,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15">
+    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>763</v>
       </c>
@@ -3972,7 +4015,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15">
+    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>763</v>
       </c>
@@ -3986,7 +4029,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15">
+    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>763</v>
       </c>
@@ -4000,7 +4043,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15">
+    <row r="88" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>763</v>
       </c>
@@ -4014,7 +4057,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15">
+    <row r="89" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>763</v>
       </c>
@@ -4028,7 +4071,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15">
+    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>764</v>
       </c>
@@ -4042,7 +4085,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15">
+    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>3</v>
       </c>
@@ -4053,7 +4096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15">
+    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>4</v>
       </c>
@@ -4064,7 +4107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15">
+    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>5</v>
       </c>
@@ -4075,7 +4118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15">
+    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>8</v>
       </c>
@@ -4086,7 +4129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15">
+    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>10</v>
       </c>
@@ -4097,7 +4140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15">
+    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>14</v>
       </c>
@@ -4108,7 +4151,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="15">
+    <row r="97" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>15</v>
       </c>
@@ -4119,7 +4162,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="2:4" ht="15">
+    <row r="98" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>16</v>
       </c>
@@ -4130,7 +4173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="2:4" ht="15">
+    <row r="99" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>17</v>
       </c>
@@ -4141,7 +4184,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="2:4" ht="15">
+    <row r="100" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>18</v>
       </c>
@@ -4152,7 +4195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="2:4" ht="15">
+    <row r="101" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>20</v>
       </c>
@@ -4163,7 +4206,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="2:4" ht="15">
+    <row r="102" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>21</v>
       </c>
@@ -4174,7 +4217,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="2:4" ht="15">
+    <row r="103" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>22</v>
       </c>
@@ -4185,7 +4228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="2:4" ht="15">
+    <row r="104" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>23</v>
       </c>
@@ -4196,7 +4239,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="2:4" ht="15">
+    <row r="105" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>24</v>
       </c>
@@ -4207,7 +4250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="2:4" ht="15">
+    <row r="106" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>25</v>
       </c>
@@ -4218,7 +4261,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="2:4" ht="15">
+    <row r="107" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>26</v>
       </c>
@@ -4229,7 +4272,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="2:4" ht="15">
+    <row r="108" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>27</v>
       </c>
@@ -4240,7 +4283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="2:4" ht="15">
+    <row r="109" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>29</v>
       </c>
@@ -4251,7 +4294,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="2:4" ht="15">
+    <row r="110" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>33</v>
       </c>
@@ -4262,7 +4305,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="2:4" ht="15">
+    <row r="111" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>34</v>
       </c>
@@ -4273,7 +4316,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="2:4" ht="15">
+    <row r="112" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>36</v>
       </c>
@@ -4284,7 +4327,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="113" spans="2:4" ht="15">
+    <row r="113" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>37</v>
       </c>
@@ -4295,7 +4338,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="2:4" ht="15">
+    <row r="114" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>38</v>
       </c>
@@ -4306,7 +4349,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="115" spans="2:4" ht="15">
+    <row r="115" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>39</v>
       </c>
@@ -4317,7 +4360,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="116" spans="2:4" ht="15">
+    <row r="116" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>40</v>
       </c>
@@ -4328,7 +4371,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="2:4" ht="15">
+    <row r="117" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>41</v>
       </c>
@@ -4339,7 +4382,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="2:4" ht="15">
+    <row r="118" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>44</v>
       </c>
@@ -4350,7 +4393,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="119" spans="2:4" ht="15">
+    <row r="119" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>45</v>
       </c>
@@ -4361,7 +4404,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="2:4" ht="15">
+    <row r="120" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>49</v>
       </c>
@@ -4372,7 +4415,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="2:4" ht="15">
+    <row r="121" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>50</v>
       </c>
@@ -4383,7 +4426,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="122" spans="2:4" ht="15">
+    <row r="122" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>52</v>
       </c>
@@ -4394,7 +4437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="2:4" ht="15">
+    <row r="123" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>53</v>
       </c>
@@ -4405,7 +4448,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="2:4" ht="15">
+    <row r="124" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>56</v>
       </c>
@@ -4416,7 +4459,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="125" spans="2:4" ht="15">
+    <row r="125" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>57</v>
       </c>
@@ -4427,7 +4470,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="2:4" ht="15">
+    <row r="126" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>58</v>
       </c>
@@ -4438,7 +4481,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="2:4" ht="15">
+    <row r="127" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>61</v>
       </c>
@@ -4449,7 +4492,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="128" spans="2:4" ht="15">
+    <row r="128" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>63</v>
       </c>
@@ -4460,7 +4503,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="2:4" ht="15">
+    <row r="129" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>64</v>
       </c>
@@ -4471,7 +4514,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="2:4" ht="15">
+    <row r="130" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>65</v>
       </c>
@@ -4482,7 +4525,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="2:4" ht="15">
+    <row r="131" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>66</v>
       </c>
@@ -4493,7 +4536,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="132" spans="2:4" ht="15">
+    <row r="132" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>67</v>
       </c>
@@ -4504,7 +4547,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="133" spans="2:4" ht="15">
+    <row r="133" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>68</v>
       </c>
@@ -4515,7 +4558,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="2:4" ht="15">
+    <row r="134" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>69</v>
       </c>
@@ -4526,7 +4569,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="2:4" ht="15">
+    <row r="135" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>71</v>
       </c>
@@ -4537,7 +4580,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="2:4" ht="15">
+    <row r="136" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>73</v>
       </c>
@@ -4548,7 +4591,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="2:4" ht="15">
+    <row r="137" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>74</v>
       </c>
@@ -4559,7 +4602,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="138" spans="2:4" ht="15">
+    <row r="138" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>75</v>
       </c>
@@ -4570,7 +4613,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="2:4" ht="15">
+    <row r="139" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>76</v>
       </c>
@@ -4581,7 +4624,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="2:4" ht="15">
+    <row r="140" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>78</v>
       </c>
@@ -4592,7 +4635,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="141" spans="2:4" ht="15">
+    <row r="141" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>79</v>
       </c>
@@ -4603,7 +4646,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="2:4" ht="15">
+    <row r="142" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>80</v>
       </c>
@@ -4614,7 +4657,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="143" spans="2:4" ht="15">
+    <row r="143" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>82</v>
       </c>
@@ -4625,7 +4668,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="144" spans="2:4" ht="15">
+    <row r="144" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>83</v>
       </c>
@@ -4636,7 +4679,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="2:4" ht="15">
+    <row r="145" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>84</v>
       </c>
@@ -4647,7 +4690,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="146" spans="2:4" ht="15">
+    <row r="146" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>85</v>
       </c>
@@ -4658,7 +4701,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="147" spans="2:4" ht="15">
+    <row r="147" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>86</v>
       </c>
@@ -4669,7 +4712,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="148" spans="2:4" ht="15">
+    <row r="148" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>89</v>
       </c>
@@ -4680,7 +4723,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="149" spans="2:4" ht="15">
+    <row r="149" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>90</v>
       </c>
@@ -4691,7 +4734,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="150" spans="2:4" ht="15">
+    <row r="150" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>93</v>
       </c>
@@ -4702,7 +4745,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="151" spans="2:4" ht="15">
+    <row r="151" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>94</v>
       </c>
@@ -4713,7 +4756,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="152" spans="2:4" ht="15">
+    <row r="152" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>95</v>
       </c>
@@ -4724,7 +4767,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="153" spans="2:4" ht="15">
+    <row r="153" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>98</v>
       </c>
@@ -4735,7 +4778,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="2:4" ht="15">
+    <row r="154" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>99</v>
       </c>
@@ -4746,7 +4789,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="155" spans="2:4" ht="15">
+    <row r="155" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>100</v>
       </c>
@@ -4757,7 +4800,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="156" spans="2:4" ht="15">
+    <row r="156" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>105</v>
       </c>
@@ -4768,7 +4811,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="157" spans="2:4" ht="15">
+    <row r="157" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>108</v>
       </c>
@@ -4779,7 +4822,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="158" spans="2:4" ht="15">
+    <row r="158" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>109</v>
       </c>
@@ -4790,7 +4833,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="159" spans="2:4" ht="15">
+    <row r="159" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>110</v>
       </c>
@@ -4801,7 +4844,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="2:4" ht="15">
+    <row r="160" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>111</v>
       </c>
@@ -4812,7 +4855,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="161" spans="2:4" ht="15">
+    <row r="161" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>112</v>
       </c>
@@ -4823,7 +4866,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="162" spans="2:4" ht="15">
+    <row r="162" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>114</v>
       </c>
@@ -4834,7 +4877,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="163" spans="2:4" ht="15">
+    <row r="163" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>116</v>
       </c>
@@ -4845,7 +4888,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="164" spans="2:4" ht="15">
+    <row r="164" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>117</v>
       </c>
@@ -4856,7 +4899,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="165" spans="2:4" ht="15">
+    <row r="165" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>118</v>
       </c>
@@ -4867,7 +4910,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="166" spans="2:4" ht="15">
+    <row r="166" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>121</v>
       </c>
@@ -4878,7 +4921,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="167" spans="2:4" ht="15">
+    <row r="167" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>122</v>
       </c>
@@ -4889,7 +4932,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="168" spans="2:4" ht="15">
+    <row r="168" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>123</v>
       </c>
@@ -4900,7 +4943,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="169" spans="2:4" ht="15">
+    <row r="169" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>126</v>
       </c>
@@ -4911,7 +4954,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="170" spans="2:4" ht="15">
+    <row r="170" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>126</v>
       </c>
@@ -4922,7 +4965,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="171" spans="2:4" ht="15">
+    <row r="171" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>130</v>
       </c>
@@ -4933,7 +4976,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="172" spans="2:4" ht="15">
+    <row r="172" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>131</v>
       </c>
@@ -4944,7 +4987,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="173" spans="2:4" ht="15">
+    <row r="173" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>132</v>
       </c>
@@ -4955,7 +4998,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="174" spans="2:4" ht="15">
+    <row r="174" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>133</v>
       </c>
@@ -4966,7 +5009,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="175" spans="2:4" ht="15">
+    <row r="175" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>134</v>
       </c>
@@ -4977,7 +5020,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="176" spans="2:4" ht="15">
+    <row r="176" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>135</v>
       </c>
@@ -4988,7 +5031,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="177" spans="2:4" ht="15">
+    <row r="177" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>136</v>
       </c>
@@ -4999,7 +5042,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="178" spans="2:4" ht="15">
+    <row r="178" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>137</v>
       </c>
@@ -5010,7 +5053,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="179" spans="2:4" ht="15">
+    <row r="179" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>138</v>
       </c>
@@ -5021,7 +5064,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="180" spans="2:4" ht="15">
+    <row r="180" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>139</v>
       </c>
@@ -5032,7 +5075,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="181" spans="2:4" ht="15">
+    <row r="181" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>139</v>
       </c>
@@ -5043,7 +5086,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="182" spans="2:4" ht="15">
+    <row r="182" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>141</v>
       </c>
@@ -5054,7 +5097,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="183" spans="2:4" ht="15">
+    <row r="183" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>142</v>
       </c>
@@ -5065,7 +5108,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="184" spans="2:4" ht="15">
+    <row r="184" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>143</v>
       </c>
@@ -5076,7 +5119,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="185" spans="2:4" ht="15">
+    <row r="185" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>145</v>
       </c>
@@ -5087,7 +5130,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="186" spans="2:4" ht="15">
+    <row r="186" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>146</v>
       </c>
@@ -5098,7 +5141,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="187" spans="2:4" ht="15">
+    <row r="187" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>149</v>
       </c>
@@ -5109,7 +5152,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="188" spans="2:4" ht="15">
+    <row r="188" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>150</v>
       </c>
@@ -5120,7 +5163,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="189" spans="2:4" ht="15">
+    <row r="189" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>151</v>
       </c>
@@ -5131,7 +5174,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="190" spans="2:4" ht="15">
+    <row r="190" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>152</v>
       </c>
@@ -5142,7 +5185,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="191" spans="2:4" ht="15">
+    <row r="191" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>153</v>
       </c>
@@ -5153,7 +5196,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="192" spans="2:4" ht="15">
+    <row r="192" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>154</v>
       </c>
@@ -5164,7 +5207,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="193" spans="2:4" ht="15">
+    <row r="193" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>155</v>
       </c>
@@ -5175,7 +5218,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="194" spans="2:4" ht="15">
+    <row r="194" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>156</v>
       </c>
@@ -5186,7 +5229,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="195" spans="2:4" ht="15">
+    <row r="195" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>157</v>
       </c>
@@ -5197,7 +5240,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="196" spans="2:4" ht="15">
+    <row r="196" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>158</v>
       </c>
@@ -5208,7 +5251,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="197" spans="2:4" ht="15">
+    <row r="197" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>159</v>
       </c>
@@ -5219,7 +5262,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="198" spans="2:4" ht="15">
+    <row r="198" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>161</v>
       </c>
@@ -5230,7 +5273,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="199" spans="2:4" ht="15">
+    <row r="199" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>162</v>
       </c>
@@ -5241,7 +5284,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="200" spans="2:4" ht="15">
+    <row r="200" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>163</v>
       </c>
@@ -5252,7 +5295,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="201" spans="2:4" ht="15">
+    <row r="201" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>164</v>
       </c>
@@ -5263,7 +5306,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="202" spans="2:4" ht="15">
+    <row r="202" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>165</v>
       </c>
@@ -5274,7 +5317,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="203" spans="2:4" ht="15">
+    <row r="203" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>165</v>
       </c>
@@ -5285,7 +5328,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="204" spans="2:4" ht="15">
+    <row r="204" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>167</v>
       </c>
@@ -5296,7 +5339,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="205" spans="2:4" ht="15">
+    <row r="205" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>168</v>
       </c>
@@ -5307,7 +5350,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="206" spans="2:4" ht="15">
+    <row r="206" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>169</v>
       </c>
@@ -5318,7 +5361,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="207" spans="2:4" ht="15">
+    <row r="207" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>170</v>
       </c>
@@ -5329,7 +5372,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="208" spans="2:4" ht="15">
+    <row r="208" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>171</v>
       </c>
@@ -5340,7 +5383,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="209" spans="2:4" ht="15">
+    <row r="209" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>172</v>
       </c>
@@ -5351,7 +5394,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="210" spans="2:4" ht="15">
+    <row r="210" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>173</v>
       </c>
@@ -5362,7 +5405,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="211" spans="2:4" ht="15">
+    <row r="211" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>175</v>
       </c>
@@ -5373,7 +5416,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="212" spans="2:4" ht="15">
+    <row r="212" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>176</v>
       </c>
@@ -5384,7 +5427,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="213" spans="2:4" ht="15">
+    <row r="213" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>177</v>
       </c>
@@ -5395,7 +5438,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="214" spans="2:4" ht="15">
+    <row r="214" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>178</v>
       </c>
@@ -5406,7 +5449,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="215" spans="2:4" ht="15">
+    <row r="215" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>179</v>
       </c>
@@ -5417,7 +5460,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="216" spans="2:4" ht="15">
+    <row r="216" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>180</v>
       </c>
@@ -5428,7 +5471,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="217" spans="2:4" ht="15">
+    <row r="217" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>181</v>
       </c>
@@ -5439,7 +5482,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="218" spans="2:4" ht="15">
+    <row r="218" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>181</v>
       </c>
@@ -5450,7 +5493,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="219" spans="2:4" ht="15">
+    <row r="219" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>183</v>
       </c>
@@ -5461,7 +5504,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="220" spans="2:4" ht="15">
+    <row r="220" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>185</v>
       </c>
@@ -5472,7 +5515,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="221" spans="2:4" ht="15">
+    <row r="221" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>186</v>
       </c>
@@ -5483,7 +5526,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="222" spans="2:4" ht="15">
+    <row r="222" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>187</v>
       </c>
@@ -5494,7 +5537,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="223" spans="2:4" ht="15">
+    <row r="223" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>188</v>
       </c>
@@ -5505,7 +5548,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="224" spans="2:4" ht="15">
+    <row r="224" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>191</v>
       </c>
@@ -5516,7 +5559,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="225" spans="2:4" ht="15">
+    <row r="225" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>192</v>
       </c>
@@ -5527,7 +5570,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="226" spans="2:4" ht="15">
+    <row r="226" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>193</v>
       </c>
@@ -5538,7 +5581,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="227" spans="2:4" ht="15">
+    <row r="227" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>194</v>
       </c>
@@ -5549,7 +5592,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="228" spans="2:4" ht="15">
+    <row r="228" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>196</v>
       </c>
@@ -5560,7 +5603,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="229" spans="2:4" ht="15">
+    <row r="229" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>197</v>
       </c>
@@ -5571,7 +5614,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="230" spans="2:4" ht="15">
+    <row r="230" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>199</v>
       </c>
@@ -5582,7 +5625,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="231" spans="2:4" ht="15">
+    <row r="231" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>200</v>
       </c>
@@ -5593,7 +5636,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="232" spans="2:4" ht="15">
+    <row r="232" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>201</v>
       </c>
@@ -5604,7 +5647,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="233" spans="2:4" ht="15">
+    <row r="233" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>202</v>
       </c>
@@ -5615,7 +5658,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="234" spans="2:4" ht="15">
+    <row r="234" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>203</v>
       </c>
@@ -5626,7 +5669,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="235" spans="2:4" ht="15">
+    <row r="235" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>204</v>
       </c>
@@ -5637,7 +5680,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="236" spans="2:4" ht="15">
+    <row r="236" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>205</v>
       </c>
@@ -5648,7 +5691,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="237" spans="2:4" ht="15">
+    <row r="237" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>206</v>
       </c>
@@ -5659,7 +5702,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="238" spans="2:4" ht="15">
+    <row r="238" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>208</v>
       </c>
@@ -5670,7 +5713,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="239" spans="2:4" ht="15">
+    <row r="239" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>209</v>
       </c>
@@ -5681,7 +5724,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="240" spans="2:4" ht="15">
+    <row r="240" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>210</v>
       </c>
@@ -5692,7 +5735,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="241" spans="2:4" ht="15">
+    <row r="241" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>211</v>
       </c>
@@ -5703,7 +5746,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="242" spans="2:4" ht="15">
+    <row r="242" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>212</v>
       </c>
@@ -5714,7 +5757,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="243" spans="2:4" ht="15">
+    <row r="243" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>214</v>
       </c>
@@ -5725,7 +5768,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="244" spans="2:4" ht="15">
+    <row r="244" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>215</v>
       </c>
@@ -5736,7 +5779,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="245" spans="2:4" ht="15">
+    <row r="245" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>215</v>
       </c>
@@ -5747,7 +5790,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="246" spans="2:4" ht="15">
+    <row r="246" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>215</v>
       </c>
@@ -5758,7 +5801,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="247" spans="2:4" ht="15">
+    <row r="247" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>215</v>
       </c>
@@ -5769,7 +5812,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="248" spans="2:4" ht="15">
+    <row r="248" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>215</v>
       </c>
@@ -5780,7 +5823,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="249" spans="2:4" ht="15">
+    <row r="249" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>220</v>
       </c>
@@ -5791,7 +5834,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="250" spans="2:4" ht="15">
+    <row r="250" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>221</v>
       </c>
@@ -5802,7 +5845,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="251" spans="2:4" ht="15">
+    <row r="251" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>222</v>
       </c>
@@ -5813,7 +5856,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="252" spans="2:4" ht="15">
+    <row r="252" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>223</v>
       </c>
@@ -5824,7 +5867,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="253" spans="2:4" ht="15">
+    <row r="253" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>224</v>
       </c>
@@ -5835,7 +5878,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="254" spans="2:4" ht="15">
+    <row r="254" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>224</v>
       </c>
@@ -5846,7 +5889,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="255" spans="2:4" ht="15">
+    <row r="255" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B255">
         <v>226</v>
       </c>
@@ -5857,7 +5900,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="256" spans="2:4" ht="15">
+    <row r="256" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>227</v>
       </c>
@@ -5868,7 +5911,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="257" spans="2:4" ht="15">
+    <row r="257" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B257">
         <v>228</v>
       </c>
@@ -5879,7 +5922,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="258" spans="2:4" ht="15">
+    <row r="258" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B258">
         <v>229</v>
       </c>
@@ -5890,7 +5933,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="259" spans="2:4" ht="15">
+    <row r="259" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B259">
         <v>231</v>
       </c>
@@ -5901,7 +5944,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="260" spans="2:4" ht="15">
+    <row r="260" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B260">
         <v>231</v>
       </c>
@@ -5912,7 +5955,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="261" spans="2:4" ht="15">
+    <row r="261" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B261">
         <v>233</v>
       </c>
@@ -5923,7 +5966,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="262" spans="2:4" ht="15">
+    <row r="262" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B262">
         <v>234</v>
       </c>
@@ -5934,7 +5977,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="263" spans="2:4" ht="15">
+    <row r="263" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B263">
         <v>235</v>
       </c>
@@ -5945,7 +5988,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="264" spans="2:4" ht="15">
+    <row r="264" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B264">
         <v>236</v>
       </c>
@@ -5956,7 +5999,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="265" spans="2:4" ht="15">
+    <row r="265" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B265">
         <v>237</v>
       </c>
@@ -5967,7 +6010,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="266" spans="2:4" ht="15">
+    <row r="266" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B266">
         <v>238</v>
       </c>
@@ -5978,7 +6021,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="267" spans="2:4" ht="15">
+    <row r="267" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B267">
         <v>240</v>
       </c>
@@ -5989,7 +6032,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="268" spans="2:4" ht="15">
+    <row r="268" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B268">
         <v>241</v>
       </c>
@@ -6000,7 +6043,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="269" spans="2:4" ht="15">
+    <row r="269" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B269">
         <v>242</v>
       </c>
@@ -6011,7 +6054,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="270" spans="2:4" ht="15">
+    <row r="270" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B270">
         <v>243</v>
       </c>
@@ -6022,7 +6065,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="271" spans="2:4" ht="15">
+    <row r="271" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B271">
         <v>243</v>
       </c>
@@ -6033,7 +6076,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="272" spans="2:4" ht="15">
+    <row r="272" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B272">
         <v>245</v>
       </c>
@@ -6044,7 +6087,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="273" spans="2:4" ht="15">
+    <row r="273" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B273">
         <v>247</v>
       </c>
@@ -6055,7 +6098,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="274" spans="2:4" ht="15">
+    <row r="274" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B274">
         <v>247</v>
       </c>
@@ -6066,7 +6109,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="275" spans="2:4" ht="15">
+    <row r="275" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B275">
         <v>249</v>
       </c>
@@ -6077,7 +6120,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="276" spans="2:4" ht="15">
+    <row r="276" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B276">
         <v>249</v>
       </c>
@@ -6088,7 +6131,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="277" spans="2:4" ht="15">
+    <row r="277" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B277">
         <v>251</v>
       </c>
@@ -6099,7 +6142,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="278" spans="2:4" ht="15">
+    <row r="278" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B278">
         <v>252</v>
       </c>
@@ -6110,7 +6153,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="279" spans="2:4" ht="15">
+    <row r="279" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B279">
         <v>254</v>
       </c>
@@ -6121,7 +6164,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="280" spans="2:4" ht="15">
+    <row r="280" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B280">
         <v>255</v>
       </c>
@@ -6132,7 +6175,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="281" spans="2:4" ht="15">
+    <row r="281" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B281">
         <v>256</v>
       </c>
@@ -6143,7 +6186,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="282" spans="2:4" ht="15">
+    <row r="282" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B282">
         <v>257</v>
       </c>
@@ -6154,7 +6197,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="283" spans="2:4" ht="15">
+    <row r="283" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B283">
         <v>258</v>
       </c>
@@ -6165,7 +6208,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="284" spans="2:4" ht="15">
+    <row r="284" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B284">
         <v>259</v>
       </c>
@@ -6176,7 +6219,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="285" spans="2:4" ht="15">
+    <row r="285" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B285">
         <v>260</v>
       </c>
@@ -6187,7 +6230,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="286" spans="2:4" ht="15">
+    <row r="286" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B286">
         <v>261</v>
       </c>
@@ -6198,7 +6241,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="287" spans="2:4" ht="15">
+    <row r="287" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B287">
         <v>262</v>
       </c>
@@ -6209,7 +6252,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="288" spans="2:4" ht="15">
+    <row r="288" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B288">
         <v>263</v>
       </c>
@@ -6220,7 +6263,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="289" spans="2:4" ht="15">
+    <row r="289" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>264</v>
       </c>
@@ -6231,7 +6274,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="290" spans="2:4" ht="15">
+    <row r="290" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B290">
         <v>265</v>
       </c>
@@ -6242,7 +6285,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="291" spans="2:4" ht="15">
+    <row r="291" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>266</v>
       </c>
@@ -6253,7 +6296,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="292" spans="2:4" ht="15">
+    <row r="292" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B292">
         <v>267</v>
       </c>
@@ -6264,7 +6307,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="293" spans="2:4" ht="15">
+    <row r="293" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>268</v>
       </c>
@@ -6275,7 +6318,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="294" spans="2:4" ht="15">
+    <row r="294" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B294">
         <v>269</v>
       </c>
@@ -6286,7 +6329,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="295" spans="2:4" ht="15">
+    <row r="295" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>270</v>
       </c>
@@ -6297,7 +6340,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="296" spans="2:4" ht="15">
+    <row r="296" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B296">
         <v>271</v>
       </c>
@@ -6308,7 +6351,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="297" spans="2:4" ht="15">
+    <row r="297" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>272</v>
       </c>
@@ -6319,7 +6362,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="298" spans="2:4" ht="15">
+    <row r="298" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B298">
         <v>273</v>
       </c>
@@ -6330,7 +6373,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="299" spans="2:4" ht="15">
+    <row r="299" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B299">
         <v>274</v>
       </c>
@@ -6341,7 +6384,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="300" spans="2:4" ht="15">
+    <row r="300" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B300">
         <v>276</v>
       </c>
@@ -6352,7 +6395,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="301" spans="2:4" ht="15">
+    <row r="301" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B301">
         <v>276</v>
       </c>
@@ -6363,7 +6406,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="302" spans="2:4" ht="15">
+    <row r="302" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B302">
         <v>279</v>
       </c>
@@ -6374,7 +6417,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="303" spans="2:4" ht="15">
+    <row r="303" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B303">
         <v>280</v>
       </c>
@@ -6385,7 +6428,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="304" spans="2:4" ht="15">
+    <row r="304" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B304">
         <v>281</v>
       </c>
@@ -6396,7 +6439,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="305" spans="2:4" ht="15">
+    <row r="305" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B305">
         <v>282</v>
       </c>
@@ -6407,7 +6450,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="306" spans="2:4" ht="15">
+    <row r="306" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B306">
         <v>282</v>
       </c>
@@ -6418,7 +6461,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="307" spans="2:4" ht="15">
+    <row r="307" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B307">
         <v>285</v>
       </c>
@@ -6429,7 +6472,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="308" spans="2:4" ht="15">
+    <row r="308" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B308">
         <v>286</v>
       </c>
@@ -6440,7 +6483,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="309" spans="2:4" ht="15">
+    <row r="309" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B309">
         <v>287</v>
       </c>
@@ -6451,7 +6494,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="310" spans="2:4" ht="15">
+    <row r="310" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B310">
         <v>288</v>
       </c>
@@ -6462,7 +6505,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="311" spans="2:4" ht="15">
+    <row r="311" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B311">
         <v>288</v>
       </c>
@@ -6473,7 +6516,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="312" spans="2:4" ht="15">
+    <row r="312" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B312">
         <v>290</v>
       </c>
@@ -6484,7 +6527,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="313" spans="2:4" ht="15">
+    <row r="313" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B313">
         <v>292</v>
       </c>
@@ -6495,7 +6538,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="314" spans="2:4" ht="15">
+    <row r="314" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B314">
         <v>294</v>
       </c>
@@ -6506,7 +6549,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="315" spans="2:4" ht="15">
+    <row r="315" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B315">
         <v>295</v>
       </c>
@@ -6517,7 +6560,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="316" spans="2:4" ht="15">
+    <row r="316" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B316">
         <v>296</v>
       </c>
@@ -6528,7 +6571,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="317" spans="2:4" ht="15">
+    <row r="317" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B317">
         <v>297</v>
       </c>
@@ -6539,7 +6582,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="318" spans="2:4" ht="15">
+    <row r="318" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B318">
         <v>298</v>
       </c>
@@ -6550,7 +6593,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="319" spans="2:4" ht="15">
+    <row r="319" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B319">
         <v>299</v>
       </c>
@@ -6561,7 +6604,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="320" spans="2:4" ht="15">
+    <row r="320" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B320">
         <v>300</v>
       </c>
@@ -6572,7 +6615,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="321" spans="2:4" ht="15">
+    <row r="321" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B321">
         <v>301</v>
       </c>
@@ -6583,7 +6626,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="322" spans="2:4" ht="15">
+    <row r="322" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B322">
         <v>302</v>
       </c>
@@ -6594,7 +6637,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="323" spans="2:4" ht="15">
+    <row r="323" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B323">
         <v>303</v>
       </c>
@@ -6605,7 +6648,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="324" spans="2:4" ht="15">
+    <row r="324" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B324">
         <v>304</v>
       </c>
@@ -6616,7 +6659,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="325" spans="2:4" ht="15">
+    <row r="325" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B325">
         <v>305</v>
       </c>
@@ -6627,7 +6670,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="326" spans="2:4" ht="15">
+    <row r="326" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B326">
         <v>306</v>
       </c>
@@ -6638,7 +6681,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="327" spans="2:4" ht="15">
+    <row r="327" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B327">
         <v>307</v>
       </c>
@@ -6649,7 +6692,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="328" spans="2:4" ht="15">
+    <row r="328" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B328">
         <v>307</v>
       </c>
@@ -6660,7 +6703,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="329" spans="2:4" ht="15">
+    <row r="329" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B329">
         <v>309</v>
       </c>
@@ -6671,7 +6714,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="330" spans="2:4" ht="15">
+    <row r="330" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B330">
         <v>310</v>
       </c>
@@ -6682,7 +6725,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="331" spans="2:4" ht="15">
+    <row r="331" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B331">
         <v>311</v>
       </c>
@@ -6693,7 +6736,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="332" spans="2:4" ht="15">
+    <row r="332" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B332">
         <v>312</v>
       </c>
@@ -6704,7 +6747,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="333" spans="2:4" ht="15">
+    <row r="333" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B333">
         <v>314</v>
       </c>
@@ -6715,7 +6758,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="334" spans="2:4" ht="15">
+    <row r="334" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B334">
         <v>315</v>
       </c>
@@ -6726,7 +6769,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="335" spans="2:4" ht="15">
+    <row r="335" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B335">
         <v>316</v>
       </c>
@@ -6737,7 +6780,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="336" spans="2:4" ht="15">
+    <row r="336" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B336">
         <v>317</v>
       </c>
@@ -6748,7 +6791,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="337" spans="2:4" ht="15">
+    <row r="337" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B337">
         <v>318</v>
       </c>
@@ -6759,7 +6802,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="338" spans="2:4" ht="15">
+    <row r="338" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B338">
         <v>319</v>
       </c>
@@ -6770,7 +6813,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="339" spans="2:4" ht="15">
+    <row r="339" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B339">
         <v>320</v>
       </c>
@@ -6781,7 +6824,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="340" spans="2:4" ht="15">
+    <row r="340" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B340">
         <v>321</v>
       </c>
@@ -6792,7 +6835,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="341" spans="2:4" ht="15">
+    <row r="341" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B341">
         <v>323</v>
       </c>
@@ -6803,7 +6846,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="342" spans="2:4" ht="15">
+    <row r="342" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B342">
         <v>324</v>
       </c>
@@ -6814,7 +6857,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="343" spans="2:4" ht="15">
+    <row r="343" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B343">
         <v>325</v>
       </c>
@@ -6825,7 +6868,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="344" spans="2:4" ht="15">
+    <row r="344" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B344">
         <v>326</v>
       </c>
@@ -6836,7 +6879,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="345" spans="2:4" ht="15">
+    <row r="345" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B345">
         <v>327</v>
       </c>
@@ -6847,7 +6890,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="346" spans="2:4" ht="15">
+    <row r="346" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B346">
         <v>328</v>
       </c>
@@ -6858,7 +6901,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="347" spans="2:4" ht="15">
+    <row r="347" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B347">
         <v>329</v>
       </c>
@@ -6869,7 +6912,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="348" spans="2:4" ht="15">
+    <row r="348" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B348">
         <v>330</v>
       </c>
@@ -6880,7 +6923,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="349" spans="2:4" ht="15">
+    <row r="349" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B349">
         <v>331</v>
       </c>
@@ -6891,7 +6934,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="350" spans="2:4" ht="15">
+    <row r="350" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B350">
         <v>332</v>
       </c>
@@ -6902,7 +6945,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="351" spans="2:4" ht="15">
+    <row r="351" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B351">
         <v>333</v>
       </c>
@@ -6913,7 +6956,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="352" spans="2:4" ht="15">
+    <row r="352" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B352">
         <v>335</v>
       </c>
@@ -6924,7 +6967,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="353" spans="2:4" ht="15">
+    <row r="353" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B353">
         <v>336</v>
       </c>
@@ -6935,7 +6978,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="354" spans="2:4" ht="15">
+    <row r="354" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B354">
         <v>337</v>
       </c>
@@ -6946,7 +6989,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="355" spans="2:4" ht="15">
+    <row r="355" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B355">
         <v>338</v>
       </c>
@@ -6957,7 +7000,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="356" spans="2:4" ht="15">
+    <row r="356" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B356">
         <v>339</v>
       </c>
@@ -6968,7 +7011,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="357" spans="2:4" ht="15">
+    <row r="357" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B357">
         <v>341</v>
       </c>
@@ -6979,7 +7022,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="358" spans="2:4" ht="15">
+    <row r="358" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B358">
         <v>342</v>
       </c>
@@ -6990,7 +7033,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="359" spans="2:4" ht="15">
+    <row r="359" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B359">
         <v>342</v>
       </c>
@@ -7001,7 +7044,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="360" spans="2:4" ht="15">
+    <row r="360" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B360">
         <v>342</v>
       </c>
@@ -7012,7 +7055,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="361" spans="2:4" ht="15">
+    <row r="361" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B361">
         <v>345</v>
       </c>
@@ -7023,7 +7066,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="362" spans="2:4" ht="15">
+    <row r="362" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B362">
         <v>346</v>
       </c>
@@ -7034,7 +7077,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="363" spans="2:4" ht="15">
+    <row r="363" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B363">
         <v>347</v>
       </c>
@@ -7045,7 +7088,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="364" spans="2:4" ht="15">
+    <row r="364" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B364">
         <v>347</v>
       </c>
@@ -7056,7 +7099,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="365" spans="2:4" ht="15">
+    <row r="365" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B365">
         <v>349</v>
       </c>
@@ -7067,7 +7110,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="366" spans="2:4" ht="15">
+    <row r="366" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B366">
         <v>350</v>
       </c>
@@ -7078,7 +7121,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="367" spans="2:4" ht="15">
+    <row r="367" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B367">
         <v>352</v>
       </c>
@@ -7089,7 +7132,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="368" spans="2:4" ht="15">
+    <row r="368" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B368">
         <v>352</v>
       </c>
@@ -7100,7 +7143,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="369" spans="2:4" ht="15">
+    <row r="369" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B369">
         <v>352</v>
       </c>
@@ -7111,7 +7154,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="370" spans="2:4" ht="15">
+    <row r="370" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B370">
         <v>355</v>
       </c>
@@ -7122,7 +7165,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="371" spans="2:4" ht="15">
+    <row r="371" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B371">
         <v>355</v>
       </c>
@@ -7133,7 +7176,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="372" spans="2:4" ht="15">
+    <row r="372" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B372">
         <v>359</v>
       </c>
@@ -7144,7 +7187,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="373" spans="2:4" ht="15">
+    <row r="373" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B373">
         <v>361</v>
       </c>
@@ -7155,7 +7198,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="374" spans="2:4" ht="15">
+    <row r="374" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B374">
         <v>362</v>
       </c>
@@ -7166,7 +7209,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="375" spans="2:4" ht="15">
+    <row r="375" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B375">
         <v>363</v>
       </c>
@@ -7177,7 +7220,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="376" spans="2:4" ht="15">
+    <row r="376" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B376">
         <v>364</v>
       </c>
@@ -7188,7 +7231,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="377" spans="2:4" ht="15">
+    <row r="377" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B377">
         <v>365</v>
       </c>
@@ -7199,7 +7242,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="378" spans="2:4" ht="15">
+    <row r="378" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B378">
         <v>365</v>
       </c>
@@ -7210,7 +7253,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="379" spans="2:4" ht="15">
+    <row r="379" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B379">
         <v>367</v>
       </c>
@@ -7221,7 +7264,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="380" spans="2:4" ht="15">
+    <row r="380" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B380">
         <v>368</v>
       </c>
@@ -7232,7 +7275,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="381" spans="2:4" ht="15">
+    <row r="381" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B381">
         <v>369</v>
       </c>
@@ -7243,7 +7286,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="382" spans="2:4" ht="15">
+    <row r="382" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B382">
         <v>370</v>
       </c>
@@ -7254,7 +7297,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="383" spans="2:4" ht="15">
+    <row r="383" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B383">
         <v>372</v>
       </c>
@@ -7265,7 +7308,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="384" spans="2:4" ht="15">
+    <row r="384" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B384">
         <v>373</v>
       </c>
@@ -7276,7 +7319,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="385" spans="2:4" ht="15">
+    <row r="385" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B385">
         <v>375</v>
       </c>
@@ -7287,7 +7330,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="386" spans="2:4" ht="15">
+    <row r="386" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B386">
         <v>376</v>
       </c>
@@ -7298,7 +7341,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="387" spans="2:4" ht="15">
+    <row r="387" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B387">
         <v>377</v>
       </c>
@@ -7309,7 +7352,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="388" spans="2:4" ht="15">
+    <row r="388" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B388">
         <v>378</v>
       </c>
@@ -7320,7 +7363,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="389" spans="2:4" ht="15">
+    <row r="389" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B389">
         <v>379</v>
       </c>
@@ -7331,7 +7374,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="390" spans="2:4" ht="15">
+    <row r="390" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B390">
         <v>381</v>
       </c>
@@ -7342,7 +7385,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="391" spans="2:4" ht="15">
+    <row r="391" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B391">
         <v>382</v>
       </c>
@@ -7353,7 +7396,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="392" spans="2:4" ht="15">
+    <row r="392" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B392">
         <v>383</v>
       </c>
@@ -7364,7 +7407,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="393" spans="2:4" ht="15">
+    <row r="393" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B393">
         <v>385</v>
       </c>
@@ -7375,7 +7418,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="394" spans="2:4" ht="15">
+    <row r="394" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B394">
         <v>386</v>
       </c>
@@ -7386,7 +7429,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="395" spans="2:4" ht="15">
+    <row r="395" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B395">
         <v>388</v>
       </c>
@@ -7397,7 +7440,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="396" spans="2:4" ht="15">
+    <row r="396" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B396">
         <v>388</v>
       </c>
@@ -7408,7 +7451,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="397" spans="2:4" ht="15">
+    <row r="397" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B397">
         <v>388</v>
       </c>
@@ -7419,7 +7462,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="398" spans="2:4" ht="15">
+    <row r="398" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B398">
         <v>391</v>
       </c>
@@ -7430,7 +7473,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="399" spans="2:4" ht="15">
+    <row r="399" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B399">
         <v>393</v>
       </c>
@@ -7441,7 +7484,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="400" spans="2:4" ht="15">
+    <row r="400" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B400">
         <v>396</v>
       </c>
@@ -7452,7 +7495,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="401" spans="2:4" ht="15">
+    <row r="401" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B401">
         <v>397</v>
       </c>
@@ -7463,7 +7506,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="402" spans="2:4" ht="15">
+    <row r="402" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B402">
         <v>398</v>
       </c>
@@ -7474,7 +7517,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="403" spans="2:4" ht="15">
+    <row r="403" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B403">
         <v>399</v>
       </c>
@@ -7485,7 +7528,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="404" spans="2:4" ht="30">
+    <row r="404" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B404">
         <v>400</v>
       </c>
@@ -7496,7 +7539,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="405" spans="2:4" ht="30">
+    <row r="405" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B405">
         <v>402</v>
       </c>
@@ -7507,7 +7550,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="406" spans="2:4" ht="30">
+    <row r="406" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B406">
         <v>403</v>
       </c>
@@ -7518,11 +7561,21 @@
         <v>759</v>
       </c>
     </row>
-    <row r="407" spans="2:4" ht="15">
+    <row r="407" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
         <v>762</v>
       </c>
       <c r="D407" s="1"/>
+    </row>
+    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B411" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B412" s="5" t="s">
+        <v>773</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:D407">
@@ -7535,4 +7588,62 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="A7:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>